--- a/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/24Sept2013_Xining_Physioflow_X14X16/X16 at 2200.xlsx
+++ b/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/24Sept2013_Xining_Physioflow_X14X16/X16 at 2200.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035"/>
+    <workbookView windowWidth="16391" windowHeight="5412"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -90,24 +90,6 @@
     <t xml:space="preserve"> Marks </t>
   </si>
   <si>
-    <t>30w</t>
-  </si>
-  <si>
-    <t>45w</t>
-  </si>
-  <si>
-    <t>90w</t>
-  </si>
-  <si>
-    <t>120w</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>---------------</t>
-  </si>
-  <si>
     <t xml:space="preserve">Avg Hr </t>
   </si>
   <si>
@@ -153,37 +135,398 @@
     <t>Avg EDFR</t>
   </si>
   <si>
+    <t>30w</t>
+  </si>
+  <si>
+    <t>45w</t>
+  </si>
+  <si>
+    <t>90w</t>
+  </si>
+  <si>
     <t>submax</t>
   </si>
   <si>
     <t>105W, submax 2</t>
   </si>
   <si>
+    <t>120w</t>
+  </si>
+  <si>
     <t>max</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>---------------</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -191,20 +534,309 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="35" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -212,6 +844,1098 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$6:$A$47</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0" c:formatCode="h:mm:ss">
+                  <c:v>0.00289351851851852</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="h:mm:ss">
+                  <c:v>0.00300925925925926</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="h:mm:ss">
+                  <c:v>0.003125</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="h:mm:ss">
+                  <c:v>0.00324074074074074</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="h:mm:ss">
+                  <c:v>0.00335648148148148</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="h:mm:ss">
+                  <c:v>0.00347222222222222</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="h:mm:ss">
+                  <c:v>0.00358796296296296</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="h:mm:ss">
+                  <c:v>0.0037037037037037</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="h:mm:ss">
+                  <c:v>0.00381944444444444</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="h:mm:ss">
+                  <c:v>0.00393518518518519</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="h:mm:ss">
+                  <c:v>0.00405092592592593</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="h:mm:ss">
+                  <c:v>0.00416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="12" c:formatCode="h:mm:ss">
+                  <c:v>0.00428240740740741</c:v>
+                </c:pt>
+                <c:pt idx="13" c:formatCode="h:mm:ss">
+                  <c:v>0.00439814814814815</c:v>
+                </c:pt>
+                <c:pt idx="14" c:formatCode="h:mm:ss">
+                  <c:v>0.00451388888888889</c:v>
+                </c:pt>
+                <c:pt idx="15" c:formatCode="h:mm:ss">
+                  <c:v>0.00462962962962963</c:v>
+                </c:pt>
+                <c:pt idx="16" c:formatCode="h:mm:ss">
+                  <c:v>0.00474537037037037</c:v>
+                </c:pt>
+                <c:pt idx="17" c:formatCode="h:mm:ss">
+                  <c:v>0.00486111111111111</c:v>
+                </c:pt>
+                <c:pt idx="18" c:formatCode="h:mm:ss">
+                  <c:v>0.00497685185185185</c:v>
+                </c:pt>
+                <c:pt idx="19" c:formatCode="h:mm:ss">
+                  <c:v>0.00509259259259259</c:v>
+                </c:pt>
+                <c:pt idx="20" c:formatCode="h:mm:ss">
+                  <c:v>0.00520833333333333</c:v>
+                </c:pt>
+                <c:pt idx="21" c:formatCode="h:mm:ss">
+                  <c:v>0.00532407407407407</c:v>
+                </c:pt>
+                <c:pt idx="22" c:formatCode="h:mm:ss">
+                  <c:v>0.00543981481481481</c:v>
+                </c:pt>
+                <c:pt idx="23" c:formatCode="h:mm:ss">
+                  <c:v>0.00555555555555556</c:v>
+                </c:pt>
+                <c:pt idx="24" c:formatCode="h:mm:ss">
+                  <c:v>0.0056712962962963</c:v>
+                </c:pt>
+                <c:pt idx="25" c:formatCode="h:mm:ss">
+                  <c:v>0.00578703703703704</c:v>
+                </c:pt>
+                <c:pt idx="26" c:formatCode="h:mm:ss">
+                  <c:v>0.00590277777777778</c:v>
+                </c:pt>
+                <c:pt idx="27" c:formatCode="h:mm:ss">
+                  <c:v>0.00601851851851852</c:v>
+                </c:pt>
+                <c:pt idx="28" c:formatCode="h:mm:ss">
+                  <c:v>0.00613425925925926</c:v>
+                </c:pt>
+                <c:pt idx="29" c:formatCode="h:mm:ss">
+                  <c:v>0.00625</c:v>
+                </c:pt>
+                <c:pt idx="30" c:formatCode="h:mm:ss">
+                  <c:v>0.00636574074074074</c:v>
+                </c:pt>
+                <c:pt idx="31" c:formatCode="h:mm:ss">
+                  <c:v>0.00648148148148148</c:v>
+                </c:pt>
+                <c:pt idx="32" c:formatCode="h:mm:ss">
+                  <c:v>0.00659722222222222</c:v>
+                </c:pt>
+                <c:pt idx="33" c:formatCode="h:mm:ss">
+                  <c:v>0.00671296296296296</c:v>
+                </c:pt>
+                <c:pt idx="34" c:formatCode="h:mm:ss">
+                  <c:v>0.0068287037037037</c:v>
+                </c:pt>
+                <c:pt idx="35" c:formatCode="h:mm:ss">
+                  <c:v>0.00694444444444444</c:v>
+                </c:pt>
+                <c:pt idx="36" c:formatCode="h:mm:ss">
+                  <c:v>0.00706018518518518</c:v>
+                </c:pt>
+                <c:pt idx="37" c:formatCode="h:mm:ss">
+                  <c:v>0.00717592592592593</c:v>
+                </c:pt>
+                <c:pt idx="38" c:formatCode="h:mm:ss">
+                  <c:v>0.00729166666666667</c:v>
+                </c:pt>
+                <c:pt idx="39" c:formatCode="h:mm:ss">
+                  <c:v>0.00740740740740741</c:v>
+                </c:pt>
+                <c:pt idx="40" c:formatCode="h:mm:ss">
+                  <c:v>0.00752314814814815</c:v>
+                </c:pt>
+                <c:pt idx="41" c:formatCode="h:mm:ss">
+                  <c:v>0.00763888888888889</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$6:$E$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>5.76</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.92</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.47</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.54</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.49</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.31</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.28</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.41</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.42</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.74</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.69</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.63</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.78</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.55</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.64</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.65</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.81</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.64</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.88</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.03</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.16</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.06</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.82</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.67</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.93</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.27</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.11</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.85</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.32</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.42</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.05</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.62</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.55</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.22</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="608044206"/>
+        <c:axId val="861103167"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="608044206"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="861103167"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="861103167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="608044206"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>102870</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>109220</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>354330</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>109220</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="10595610" y="7607300"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -495,21 +2219,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AI49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M26" workbookViewId="0">
-      <selection activeCell="W41" sqref="W41"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" topLeftCell="K29" workbookViewId="0">
+      <selection activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -532,7 +2256,7 @@
       <c r="AH1" s="2"/>
       <c r="AI1" s="2"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -561,7 +2285,7 @@
       <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="21:35">
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
@@ -578,7 +2302,7 @@
       <c r="AH3" s="2"/>
       <c r="AI3" s="2"/>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -637,52 +2361,52 @@
         <v>23</v>
       </c>
       <c r="U4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="AB4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="AC4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="AD4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="AE4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="AF4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AA4" s="2" t="s">
+      <c r="AG4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AB4" s="2" t="s">
+      <c r="AH4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AC4" s="2" t="s">
+      <c r="AI4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AD4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AI4" s="2" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="21:35">
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
@@ -699,12 +2423,12 @@
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35">
       <c r="A6" s="1">
-        <v>2.8935185185185188E-3</v>
+        <v>0.00289351851851852</v>
       </c>
       <c r="B6" s="1">
-        <v>0.15313657407407408</v>
+        <v>0.153136574074074</v>
       </c>
       <c r="C6">
         <v>129</v>
@@ -752,7 +2476,7 @@
         <v>34</v>
       </c>
       <c r="S6" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
@@ -770,12 +2494,12 @@
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35">
       <c r="A7" s="1">
-        <v>3.0092592592592588E-3</v>
+        <v>0.00300925925925926</v>
       </c>
       <c r="B7" s="1">
-        <v>0.1532523148148148</v>
+        <v>0.153252314814815</v>
       </c>
       <c r="C7">
         <v>132</v>
@@ -838,12 +2562,12 @@
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35">
       <c r="A8" s="1">
-        <v>3.1249999999999997E-3</v>
+        <v>0.003125</v>
       </c>
       <c r="B8" s="1">
-        <v>0.15336805555555555</v>
+        <v>0.153368055555556</v>
       </c>
       <c r="C8">
         <v>130</v>
@@ -891,7 +2615,7 @@
         <v>38</v>
       </c>
       <c r="S8" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
@@ -909,12 +2633,12 @@
       <c r="AH8" s="2"/>
       <c r="AI8" s="2"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35">
       <c r="A9" s="1">
-        <v>3.2407407407407406E-3</v>
+        <v>0.00324074074074074</v>
       </c>
       <c r="B9" s="1">
-        <v>0.1534837962962963</v>
+        <v>0.153483796296296</v>
       </c>
       <c r="C9">
         <v>132</v>
@@ -953,7 +2677,7 @@
         <v>1526</v>
       </c>
       <c r="O9">
-        <v>4.3899999999999997</v>
+        <v>4.39</v>
       </c>
       <c r="P9">
         <v>102</v>
@@ -977,12 +2701,12 @@
       <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35">
       <c r="A10" s="1">
-        <v>3.3564814814814811E-3</v>
+        <v>0.00335648148148148</v>
       </c>
       <c r="B10" s="1">
-        <v>0.15359953703703702</v>
+        <v>0.153599537037037</v>
       </c>
       <c r="C10">
         <v>132</v>
@@ -1045,12 +2769,12 @@
       <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35">
       <c r="A11" s="1">
-        <v>3.472222222222222E-3</v>
+        <v>0.00347222222222222</v>
       </c>
       <c r="B11" s="1">
-        <v>0.1537152777777778</v>
+        <v>0.153715277777778</v>
       </c>
       <c r="C11">
         <v>129</v>
@@ -1062,7 +2786,7 @@
         <v>6.15</v>
       </c>
       <c r="F11">
-        <v>4.2300000000000004</v>
+        <v>4.23</v>
       </c>
       <c r="G11">
         <v>67</v>
@@ -1113,12 +2837,12 @@
       <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35">
       <c r="A12" s="1">
-        <v>3.5879629629629629E-3</v>
+        <v>0.00358796296296296</v>
       </c>
       <c r="B12" s="1">
-        <v>0.15383101851851852</v>
+        <v>0.153831018518519</v>
       </c>
       <c r="C12">
         <v>133</v>
@@ -1166,7 +2890,7 @@
         <v>38</v>
       </c>
       <c r="S12" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
@@ -1184,12 +2908,12 @@
       <c r="AH12" s="2"/>
       <c r="AI12" s="2"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35">
       <c r="A13" s="1">
-        <v>3.7037037037037034E-3</v>
+        <v>0.0037037037037037</v>
       </c>
       <c r="B13" s="1">
-        <v>0.15394675925925924</v>
+        <v>0.153946759259259</v>
       </c>
       <c r="C13">
         <v>141</v>
@@ -1228,7 +2952,7 @@
         <v>1391</v>
       </c>
       <c r="O13">
-        <v>4.8899999999999997</v>
+        <v>4.89</v>
       </c>
       <c r="P13">
         <v>106</v>
@@ -1252,12 +2976,12 @@
       <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35">
       <c r="A14" s="1">
-        <v>3.8194444444444443E-3</v>
+        <v>0.00381944444444444</v>
       </c>
       <c r="B14" s="1">
-        <v>0.15406249999999999</v>
+        <v>0.1540625</v>
       </c>
       <c r="C14">
         <v>141</v>
@@ -1296,7 +3020,7 @@
         <v>1401</v>
       </c>
       <c r="O14">
-        <v>4.8499999999999996</v>
+        <v>4.85</v>
       </c>
       <c r="P14">
         <v>110</v>
@@ -1320,12 +3044,12 @@
       <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35">
       <c r="A15" s="1">
-        <v>3.9351851851851857E-3</v>
+        <v>0.00393518518518519</v>
       </c>
       <c r="B15" s="1">
-        <v>0.15417824074074074</v>
+        <v>0.154178240740741</v>
       </c>
       <c r="C15">
         <v>139</v>
@@ -1388,12 +3112,12 @@
       <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35">
       <c r="A16" s="1">
-        <v>4.0509259259259257E-3</v>
+        <v>0.00405092592592593</v>
       </c>
       <c r="B16" s="1">
-        <v>0.15429398148148146</v>
+        <v>0.154293981481481</v>
       </c>
       <c r="C16">
         <v>138</v>
@@ -1456,12 +3180,12 @@
       <c r="AH16" s="2"/>
       <c r="AI16" s="2"/>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35">
       <c r="A17" s="1">
-        <v>4.1666666666666666E-3</v>
+        <v>0.00416666666666667</v>
       </c>
       <c r="B17" s="1">
-        <v>0.15440972222222224</v>
+        <v>0.154409722222222</v>
       </c>
       <c r="C17">
         <v>140</v>
@@ -1524,12 +3248,12 @@
       <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35">
       <c r="A18" s="1">
-        <v>4.2824074074074075E-3</v>
+        <v>0.00428240740740741</v>
       </c>
       <c r="B18" s="1">
-        <v>0.15452546296296296</v>
+        <v>0.154525462962963</v>
       </c>
       <c r="C18">
         <v>147</v>
@@ -1592,12 +3316,12 @@
       <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35">
       <c r="A19" s="1">
-        <v>4.3981481481481484E-3</v>
+        <v>0.00439814814814815</v>
       </c>
       <c r="B19" s="1">
-        <v>0.15464120370370371</v>
+        <v>0.154641203703704</v>
       </c>
       <c r="C19">
         <v>150</v>
@@ -1660,12 +3384,12 @@
       <c r="AH19" s="2"/>
       <c r="AI19" s="2"/>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35">
       <c r="A20" s="1">
-        <v>4.5138888888888893E-3</v>
+        <v>0.00451388888888889</v>
       </c>
       <c r="B20" s="1">
-        <v>0.15475694444444446</v>
+        <v>0.154756944444444</v>
       </c>
       <c r="C20">
         <v>153</v>
@@ -1677,7 +3401,7 @@
         <v>6.74</v>
       </c>
       <c r="F20">
-        <v>4.6399999999999997</v>
+        <v>4.64</v>
       </c>
       <c r="G20">
         <v>67</v>
@@ -1704,7 +3428,7 @@
         <v>1314</v>
       </c>
       <c r="O20">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="P20">
         <v>104</v>
@@ -1728,12 +3452,12 @@
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35">
       <c r="A21" s="1">
-        <v>4.6296296296296302E-3</v>
+        <v>0.00462962962962963</v>
       </c>
       <c r="B21" s="1">
-        <v>0.15487268518518518</v>
+        <v>0.154872685185185</v>
       </c>
       <c r="C21">
         <v>156</v>
@@ -1745,7 +3469,7 @@
         <v>6.69</v>
       </c>
       <c r="F21">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="G21">
         <v>66</v>
@@ -1796,12 +3520,12 @@
       <c r="AH21" s="2"/>
       <c r="AI21" s="2"/>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35">
       <c r="A22" s="1">
-        <v>4.7453703703703703E-3</v>
+        <v>0.00474537037037037</v>
       </c>
       <c r="B22" s="1">
-        <v>0.1549884259259259</v>
+        <v>0.154988425925926</v>
       </c>
       <c r="C22">
         <v>156</v>
@@ -1864,12 +3588,12 @@
       <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35">
       <c r="A23" s="1">
-        <v>4.8611111111111112E-3</v>
+        <v>0.00486111111111111</v>
       </c>
       <c r="B23" s="1">
-        <v>0.15510416666666668</v>
+        <v>0.155104166666667</v>
       </c>
       <c r="C23">
         <v>159</v>
@@ -1932,12 +3656,12 @@
       <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35">
       <c r="A24" s="1">
-        <v>4.9768518518518521E-3</v>
+        <v>0.00497685185185185</v>
       </c>
       <c r="B24" s="1">
-        <v>0.1552199074074074</v>
+        <v>0.155219907407407</v>
       </c>
       <c r="C24">
         <v>160</v>
@@ -2000,12 +3724,12 @@
       <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35">
       <c r="A25" s="1">
-        <v>5.0925925925925921E-3</v>
+        <v>0.00509259259259259</v>
       </c>
       <c r="B25" s="1">
-        <v>0.15533564814814815</v>
+        <v>0.155335648148148</v>
       </c>
       <c r="C25">
         <v>162</v>
@@ -2068,12 +3792,12 @@
       <c r="AH25" s="2"/>
       <c r="AI25" s="2"/>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35">
       <c r="A26" s="1">
-        <v>5.208333333333333E-3</v>
+        <v>0.00520833333333333</v>
       </c>
       <c r="B26" s="1">
-        <v>0.1554513888888889</v>
+        <v>0.155451388888889</v>
       </c>
       <c r="C26">
         <v>163</v>
@@ -2136,12 +3860,12 @@
       <c r="AH26" s="2"/>
       <c r="AI26" s="2"/>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35">
       <c r="A27" s="1">
-        <v>5.3240740740740748E-3</v>
+        <v>0.00532407407407407</v>
       </c>
       <c r="B27" s="1">
-        <v>0.15556712962962962</v>
+        <v>0.15556712962963</v>
       </c>
       <c r="C27">
         <v>163</v>
@@ -2153,7 +3877,7 @@
         <v>6.81</v>
       </c>
       <c r="F27">
-        <v>4.6900000000000004</v>
+        <v>4.69</v>
       </c>
       <c r="G27">
         <v>66</v>
@@ -2180,7 +3904,7 @@
         <v>1274</v>
       </c>
       <c r="O27">
-        <v>4.8499999999999996</v>
+        <v>4.85</v>
       </c>
       <c r="P27">
         <v>101</v>
@@ -2189,7 +3913,7 @@
         <v>40</v>
       </c>
       <c r="S27" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
@@ -2207,12 +3931,12 @@
       <c r="AH27" s="2"/>
       <c r="AI27" s="2"/>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35">
       <c r="A28" s="1">
-        <v>5.4398148148148149E-3</v>
+        <v>0.00543981481481481</v>
       </c>
       <c r="B28" s="1">
-        <v>0.15568287037037037</v>
+        <v>0.15568287037037</v>
       </c>
       <c r="C28">
         <v>162</v>
@@ -2275,12 +3999,12 @@
       <c r="AH28" s="2"/>
       <c r="AI28" s="2"/>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35">
       <c r="A29" s="1">
-        <v>5.5555555555555558E-3</v>
+        <v>0.00555555555555556</v>
       </c>
       <c r="B29" s="1">
-        <v>0.15579861111111112</v>
+        <v>0.155798611111111</v>
       </c>
       <c r="C29">
         <v>165</v>
@@ -2292,7 +4016,7 @@
         <v>6.88</v>
       </c>
       <c r="F29">
-        <v>4.7300000000000004</v>
+        <v>4.73</v>
       </c>
       <c r="G29">
         <v>66</v>
@@ -2319,7 +4043,7 @@
         <v>1253</v>
       </c>
       <c r="O29">
-        <v>4.8600000000000003</v>
+        <v>4.86</v>
       </c>
       <c r="P29">
         <v>104</v>
@@ -2343,12 +4067,12 @@
       <c r="AH29" s="2"/>
       <c r="AI29" s="2"/>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35">
       <c r="A30" s="1">
-        <v>5.6712962962962958E-3</v>
+        <v>0.0056712962962963</v>
       </c>
       <c r="B30" s="1">
-        <v>0.15591435185185185</v>
+        <v>0.155914351851852</v>
       </c>
       <c r="C30">
         <v>168</v>
@@ -2411,12 +4135,12 @@
       <c r="AH30" s="2"/>
       <c r="AI30" s="2"/>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35">
       <c r="A31" s="1">
-        <v>5.7870370370370376E-3</v>
+        <v>0.00578703703703704</v>
       </c>
       <c r="B31" s="1">
-        <v>0.1560300925925926</v>
+        <v>0.156030092592593</v>
       </c>
       <c r="C31">
         <v>169</v>
@@ -2479,12 +4203,12 @@
       <c r="AH31" s="2"/>
       <c r="AI31" s="2"/>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35">
       <c r="A32" s="1">
-        <v>5.9027777777777776E-3</v>
+        <v>0.00590277777777778</v>
       </c>
       <c r="B32" s="1">
-        <v>0.15614583333333334</v>
+        <v>0.156145833333333</v>
       </c>
       <c r="C32">
         <v>172</v>
@@ -2547,12 +4271,12 @@
       <c r="AH32" s="2"/>
       <c r="AI32" s="2"/>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35">
       <c r="A33" s="1">
-        <v>6.0185185185185177E-3</v>
+        <v>0.00601851851851852</v>
       </c>
       <c r="B33" s="1">
-        <v>0.15626157407407407</v>
+        <v>0.156261574074074</v>
       </c>
       <c r="C33">
         <v>176</v>
@@ -2564,7 +4288,7 @@
         <v>7.06</v>
       </c>
       <c r="F33">
-        <v>4.8600000000000003</v>
+        <v>4.86</v>
       </c>
       <c r="G33">
         <v>66</v>
@@ -2591,7 +4315,7 @@
         <v>1199</v>
       </c>
       <c r="O33">
-        <v>4.8899999999999997</v>
+        <v>4.89</v>
       </c>
       <c r="P33">
         <v>102</v>
@@ -2615,12 +4339,12 @@
       <c r="AH33" s="2"/>
       <c r="AI33" s="2"/>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35">
       <c r="A34" s="1">
-        <v>6.1342592592592594E-3</v>
+        <v>0.00613425925925926</v>
       </c>
       <c r="B34" s="1">
-        <v>0.15637731481481482</v>
+        <v>0.156377314814815</v>
       </c>
       <c r="C34">
         <v>178</v>
@@ -2683,12 +4407,12 @@
       <c r="AH34" s="2"/>
       <c r="AI34" s="2"/>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35">
       <c r="A35" s="1">
-        <v>6.2499999999999995E-3</v>
+        <v>0.00625</v>
       </c>
       <c r="B35" s="1">
-        <v>0.15649305555555557</v>
+        <v>0.156493055555556</v>
       </c>
       <c r="C35">
         <v>180</v>
@@ -2727,7 +4451,7 @@
         <v>1232</v>
       </c>
       <c r="O35">
-        <v>4.4800000000000004</v>
+        <v>4.48</v>
       </c>
       <c r="P35">
         <v>94</v>
@@ -2736,51 +4460,51 @@
         <v>43</v>
       </c>
       <c r="S35" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="U35" s="2">
         <f>AVERAGE(C29:C35)</f>
-        <v>172.57142857142858</v>
+        <v>172.571428571429</v>
       </c>
       <c r="V35" s="2">
         <f t="shared" ref="V35:AI35" si="0">AVERAGE(D29:D35)</f>
-        <v>39.571428571428569</v>
+        <v>39.5714285714286</v>
       </c>
       <c r="W35" s="2">
         <f t="shared" si="0"/>
-        <v>6.9314285714285715</v>
+        <v>6.93142857142857</v>
       </c>
       <c r="X35" s="2">
         <f t="shared" si="0"/>
-        <v>4.7714285714285714</v>
+        <v>4.77142857142857</v>
       </c>
       <c r="Y35" s="2">
         <f t="shared" si="0"/>
-        <v>65.857142857142861</v>
+        <v>65.8571428571429</v>
       </c>
       <c r="Z35" s="2">
         <f t="shared" si="0"/>
-        <v>180.57142857142858</v>
+        <v>180.571428571429</v>
       </c>
       <c r="AA35" s="2">
         <f t="shared" si="0"/>
-        <v>165.28571428571428</v>
+        <v>165.285714285714</v>
       </c>
       <c r="AB35" s="2">
         <f t="shared" si="0"/>
-        <v>114.85714285714286</v>
+        <v>114.857142857143</v>
       </c>
       <c r="AC35" s="2">
         <f t="shared" si="0"/>
-        <v>55.142857142857146</v>
+        <v>55.1428571428571</v>
       </c>
       <c r="AD35" s="2">
         <f t="shared" si="0"/>
-        <v>60.142857142857146</v>
+        <v>60.1428571428571</v>
       </c>
       <c r="AE35" s="2">
         <f t="shared" si="0"/>
-        <v>841.71428571428567</v>
+        <v>841.714285714286</v>
       </c>
       <c r="AF35" s="2">
         <f t="shared" si="0"/>
@@ -2788,23 +4512,23 @@
       </c>
       <c r="AG35" s="2">
         <f t="shared" si="0"/>
-        <v>4.8100000000000005</v>
+        <v>4.81</v>
       </c>
       <c r="AH35" s="2">
         <f t="shared" si="0"/>
-        <v>101.57142857142857</v>
+        <v>101.571428571429</v>
       </c>
       <c r="AI35" s="2">
         <f t="shared" si="0"/>
-        <v>41.571428571428569</v>
+        <v>41.5714285714286</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35">
       <c r="A36" s="1">
-        <v>6.3657407407407404E-3</v>
+        <v>0.00636574074074074</v>
       </c>
       <c r="B36" s="1">
-        <v>0.15660879629629629</v>
+        <v>0.156608796296296</v>
       </c>
       <c r="C36">
         <v>181</v>
@@ -2816,7 +4540,7 @@
         <v>6.93</v>
       </c>
       <c r="F36">
-        <v>4.7699999999999996</v>
+        <v>4.77</v>
       </c>
       <c r="G36">
         <v>65</v>
@@ -2867,12 +4591,12 @@
       <c r="AH36" s="2"/>
       <c r="AI36" s="2"/>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35">
       <c r="A37" s="1">
-        <v>6.4814814814814813E-3</v>
+        <v>0.00648148148148148</v>
       </c>
       <c r="B37" s="1">
-        <v>0.15672453703703704</v>
+        <v>0.156724537037037</v>
       </c>
       <c r="C37">
         <v>184</v>
@@ -2911,7 +4635,7 @@
         <v>1152</v>
       </c>
       <c r="O37">
-        <v>4.9800000000000004</v>
+        <v>4.98</v>
       </c>
       <c r="P37">
         <v>97</v>
@@ -2935,12 +4659,12 @@
       <c r="AH37" s="2"/>
       <c r="AI37" s="2"/>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35">
       <c r="A38" s="1">
-        <v>6.5972222222222222E-3</v>
+        <v>0.00659722222222222</v>
       </c>
       <c r="B38" s="1">
-        <v>0.15684027777777779</v>
+        <v>0.156840277777778</v>
       </c>
       <c r="C38">
         <v>184</v>
@@ -2952,7 +4676,7 @@
         <v>7.11</v>
       </c>
       <c r="F38">
-        <v>4.8899999999999997</v>
+        <v>4.89</v>
       </c>
       <c r="G38">
         <v>65</v>
@@ -2988,7 +4712,7 @@
         <v>45</v>
       </c>
       <c r="S38" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="U38" s="2">
         <f>AVERAGE(C35:C38)</f>
@@ -3000,7 +4724,7 @@
       </c>
       <c r="W38" s="2">
         <f t="shared" si="1"/>
-        <v>6.9949999999999992</v>
+        <v>6.995</v>
       </c>
       <c r="X38" s="2">
         <f t="shared" si="1"/>
@@ -3040,7 +4764,7 @@
       </c>
       <c r="AG38" s="2">
         <f t="shared" si="1"/>
-        <v>4.7525000000000004</v>
+        <v>4.7525</v>
       </c>
       <c r="AH38" s="2">
         <f t="shared" si="1"/>
@@ -3051,12 +4775,12 @@
         <v>43.25</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35">
       <c r="A39" s="1">
-        <v>6.7129629629629622E-3</v>
+        <v>0.00671296296296296</v>
       </c>
       <c r="B39" s="1">
-        <v>0.15695601851851851</v>
+        <v>0.156956018518519</v>
       </c>
       <c r="C39">
         <v>184</v>
@@ -3104,7 +4828,7 @@
         <v>43</v>
       </c>
       <c r="S39" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="U39" s="2"/>
       <c r="V39" s="2"/>
@@ -3122,12 +4846,12 @@
       <c r="AH39" s="2"/>
       <c r="AI39" s="2"/>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35">
       <c r="A40" s="1">
-        <v>6.828703703703704E-3</v>
+        <v>0.0068287037037037</v>
       </c>
       <c r="B40" s="1">
-        <v>0.15707175925925926</v>
+        <v>0.157071759259259</v>
       </c>
       <c r="C40">
         <v>184</v>
@@ -3190,12 +4914,12 @@
       <c r="AH40" s="2"/>
       <c r="AI40" s="2"/>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35">
       <c r="A41" s="1">
-        <v>6.9444444444444441E-3</v>
+        <v>0.00694444444444444</v>
       </c>
       <c r="B41" s="1">
-        <v>0.15718750000000001</v>
+        <v>0.1571875</v>
       </c>
       <c r="C41">
         <v>186</v>
@@ -3207,7 +4931,7 @@
         <v>7.36</v>
       </c>
       <c r="F41">
-        <v>5.0599999999999996</v>
+        <v>5.06</v>
       </c>
       <c r="G41">
         <v>66</v>
@@ -3243,7 +4967,7 @@
         <v>50</v>
       </c>
       <c r="S41" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="U41" s="2">
         <f>AVERAGE(C38:C41)</f>
@@ -3259,7 +4983,7 @@
       </c>
       <c r="X41" s="2">
         <f t="shared" si="2"/>
-        <v>4.9249999999999998</v>
+        <v>4.925</v>
       </c>
       <c r="Y41" s="2">
         <f t="shared" si="2"/>
@@ -3295,7 +5019,7 @@
       </c>
       <c r="AG41" s="2">
         <f t="shared" si="2"/>
-        <v>4.8875000000000002</v>
+        <v>4.8875</v>
       </c>
       <c r="AH41" s="2">
         <f t="shared" si="2"/>
@@ -3306,12 +5030,12 @@
         <v>46.5</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19">
       <c r="A42" s="1">
-        <v>7.0601851851851841E-3</v>
+        <v>0.00706018518518518</v>
       </c>
       <c r="B42" s="1">
-        <v>0.15730324074074073</v>
+        <v>0.157303240740741</v>
       </c>
       <c r="C42">
         <v>187</v>
@@ -3323,7 +5047,7 @@
         <v>7.42</v>
       </c>
       <c r="F42">
-        <v>5.1100000000000003</v>
+        <v>5.11</v>
       </c>
       <c r="G42">
         <v>66</v>
@@ -3359,15 +5083,15 @@
         <v>38</v>
       </c>
       <c r="S42" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17">
       <c r="A43" s="1">
-        <v>7.1759259259259259E-3</v>
+        <v>0.00717592592592593</v>
       </c>
       <c r="B43" s="1">
-        <v>0.15741898148148148</v>
+        <v>0.157418981481481</v>
       </c>
       <c r="C43">
         <v>185</v>
@@ -3379,7 +5103,7 @@
         <v>7.05</v>
       </c>
       <c r="F43">
-        <v>4.8499999999999996</v>
+        <v>4.85</v>
       </c>
       <c r="G43">
         <v>65</v>
@@ -3406,7 +5130,7 @@
         <v>1174</v>
       </c>
       <c r="O43">
-        <v>4.7699999999999996</v>
+        <v>4.77</v>
       </c>
       <c r="P43">
         <v>92</v>
@@ -3415,12 +5139,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17">
       <c r="A44" s="1">
-        <v>7.2916666666666659E-3</v>
+        <v>0.00729166666666667</v>
       </c>
       <c r="B44" s="1">
-        <v>0.15753472222222223</v>
+        <v>0.157534722222222</v>
       </c>
       <c r="C44">
         <v>182</v>
@@ -3468,12 +5192,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17">
       <c r="A45" s="1">
-        <v>7.4074074074074068E-3</v>
+        <v>0.00740740740740741</v>
       </c>
       <c r="B45" s="1">
-        <v>0.15765046296296295</v>
+        <v>0.157650462962963</v>
       </c>
       <c r="C45">
         <v>179</v>
@@ -3521,12 +5245,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17">
       <c r="A46" s="1">
-        <v>7.5231481481481477E-3</v>
+        <v>0.00752314814814815</v>
       </c>
       <c r="B46" s="1">
-        <v>0.1577662037037037</v>
+        <v>0.157766203703704</v>
       </c>
       <c r="C46">
         <v>177</v>
@@ -3565,7 +5289,7 @@
         <v>1302</v>
       </c>
       <c r="O46">
-        <v>4.1100000000000003</v>
+        <v>4.11</v>
       </c>
       <c r="P46">
         <v>96</v>
@@ -3574,12 +5298,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17">
       <c r="A47" s="1">
-        <v>7.6388888888888886E-3</v>
+        <v>0.00763888888888889</v>
       </c>
       <c r="B47" s="1">
-        <v>0.15788194444444445</v>
+        <v>0.157881944444444</v>
       </c>
       <c r="C47">
         <v>178</v>
@@ -3627,36 +5351,46 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/24Sept2013_Xining_Physioflow_X14X16/X16 at 2200.xlsx
+++ b/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/24Sept2013_Xining_Physioflow_X14X16/X16 at 2200.xlsx
@@ -1,17 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanju\Desktop\check\QT_VO2max_Data\Xining_VO2_QT_values_revisited_20June2019\VO2_Physioflow_Avg_Match_Watts_Dean\physioflow\24Sept2013_Xining_Physioflow_X14X16\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13417DE-F3D8-4BDC-BC45-FE0237A3DCE5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="16391" windowHeight="5412"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -165,14 +179,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,353 +188,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -534,322 +205,36 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="35" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -861,7 +246,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -887,6 +271,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -911,140 +296,137 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$A$6:$A$47</c:f>
               <c:numCache>
                 <c:formatCode>h:mm:ss</c:formatCode>
                 <c:ptCount val="42"/>
-                <c:pt idx="0" c:formatCode="h:mm:ss">
-                  <c:v>0.00289351851851852</c:v>
-                </c:pt>
-                <c:pt idx="1" c:formatCode="h:mm:ss">
-                  <c:v>0.00300925925925926</c:v>
-                </c:pt>
-                <c:pt idx="2" c:formatCode="h:mm:ss">
-                  <c:v>0.003125</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="h:mm:ss">
-                  <c:v>0.00324074074074074</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="h:mm:ss">
-                  <c:v>0.00335648148148148</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="h:mm:ss">
-                  <c:v>0.00347222222222222</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="h:mm:ss">
-                  <c:v>0.00358796296296296</c:v>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="h:mm:ss">
-                  <c:v>0.0037037037037037</c:v>
-                </c:pt>
-                <c:pt idx="8" c:formatCode="h:mm:ss">
-                  <c:v>0.00381944444444444</c:v>
-                </c:pt>
-                <c:pt idx="9" c:formatCode="h:mm:ss">
-                  <c:v>0.00393518518518519</c:v>
-                </c:pt>
-                <c:pt idx="10" c:formatCode="h:mm:ss">
-                  <c:v>0.00405092592592593</c:v>
-                </c:pt>
-                <c:pt idx="11" c:formatCode="h:mm:ss">
-                  <c:v>0.00416666666666667</c:v>
-                </c:pt>
-                <c:pt idx="12" c:formatCode="h:mm:ss">
-                  <c:v>0.00428240740740741</c:v>
-                </c:pt>
-                <c:pt idx="13" c:formatCode="h:mm:ss">
-                  <c:v>0.00439814814814815</c:v>
-                </c:pt>
-                <c:pt idx="14" c:formatCode="h:mm:ss">
-                  <c:v>0.00451388888888889</c:v>
-                </c:pt>
-                <c:pt idx="15" c:formatCode="h:mm:ss">
-                  <c:v>0.00462962962962963</c:v>
-                </c:pt>
-                <c:pt idx="16" c:formatCode="h:mm:ss">
-                  <c:v>0.00474537037037037</c:v>
-                </c:pt>
-                <c:pt idx="17" c:formatCode="h:mm:ss">
-                  <c:v>0.00486111111111111</c:v>
-                </c:pt>
-                <c:pt idx="18" c:formatCode="h:mm:ss">
-                  <c:v>0.00497685185185185</c:v>
-                </c:pt>
-                <c:pt idx="19" c:formatCode="h:mm:ss">
-                  <c:v>0.00509259259259259</c:v>
-                </c:pt>
-                <c:pt idx="20" c:formatCode="h:mm:ss">
-                  <c:v>0.00520833333333333</c:v>
-                </c:pt>
-                <c:pt idx="21" c:formatCode="h:mm:ss">
-                  <c:v>0.00532407407407407</c:v>
-                </c:pt>
-                <c:pt idx="22" c:formatCode="h:mm:ss">
-                  <c:v>0.00543981481481481</c:v>
-                </c:pt>
-                <c:pt idx="23" c:formatCode="h:mm:ss">
-                  <c:v>0.00555555555555556</c:v>
-                </c:pt>
-                <c:pt idx="24" c:formatCode="h:mm:ss">
-                  <c:v>0.0056712962962963</c:v>
-                </c:pt>
-                <c:pt idx="25" c:formatCode="h:mm:ss">
-                  <c:v>0.00578703703703704</c:v>
-                </c:pt>
-                <c:pt idx="26" c:formatCode="h:mm:ss">
-                  <c:v>0.00590277777777778</c:v>
-                </c:pt>
-                <c:pt idx="27" c:formatCode="h:mm:ss">
-                  <c:v>0.00601851851851852</c:v>
-                </c:pt>
-                <c:pt idx="28" c:formatCode="h:mm:ss">
-                  <c:v>0.00613425925925926</c:v>
-                </c:pt>
-                <c:pt idx="29" c:formatCode="h:mm:ss">
-                  <c:v>0.00625</c:v>
-                </c:pt>
-                <c:pt idx="30" c:formatCode="h:mm:ss">
-                  <c:v>0.00636574074074074</c:v>
-                </c:pt>
-                <c:pt idx="31" c:formatCode="h:mm:ss">
-                  <c:v>0.00648148148148148</c:v>
-                </c:pt>
-                <c:pt idx="32" c:formatCode="h:mm:ss">
-                  <c:v>0.00659722222222222</c:v>
-                </c:pt>
-                <c:pt idx="33" c:formatCode="h:mm:ss">
-                  <c:v>0.00671296296296296</c:v>
-                </c:pt>
-                <c:pt idx="34" c:formatCode="h:mm:ss">
-                  <c:v>0.0068287037037037</c:v>
-                </c:pt>
-                <c:pt idx="35" c:formatCode="h:mm:ss">
-                  <c:v>0.00694444444444444</c:v>
-                </c:pt>
-                <c:pt idx="36" c:formatCode="h:mm:ss">
-                  <c:v>0.00706018518518518</c:v>
-                </c:pt>
-                <c:pt idx="37" c:formatCode="h:mm:ss">
-                  <c:v>0.00717592592592593</c:v>
-                </c:pt>
-                <c:pt idx="38" c:formatCode="h:mm:ss">
-                  <c:v>0.00729166666666667</c:v>
-                </c:pt>
-                <c:pt idx="39" c:formatCode="h:mm:ss">
-                  <c:v>0.00740740740740741</c:v>
-                </c:pt>
-                <c:pt idx="40" c:formatCode="h:mm:ss">
-                  <c:v>0.00752314814814815</c:v>
-                </c:pt>
-                <c:pt idx="41" c:formatCode="h:mm:ss">
-                  <c:v>0.00763888888888889</c:v>
+                <c:pt idx="0">
+                  <c:v>2.8935185185185201E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0092592592592601E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1250000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2407407407407402E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3564814814814798E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4722222222222199E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5879629629629599E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.7037037037036999E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.81944444444444E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.93518518518519E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.05092592592593E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.1666666666666701E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.2824074074074101E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.3981481481481502E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.5138888888888902E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.6296296296296302E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.7453703703703703E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.8611111111111103E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.9768518518518504E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.0925925925925904E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.2083333333333296E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.3240740740740696E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.4398148148148097E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.5555555555555601E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.6712962962963001E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.7870370370370402E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.9027777777777802E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.0185185185185203E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.1342592592592603E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.3657407407407404E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.4814814814814804E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.5972222222222196E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.7129629629629596E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.8287037037036997E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.9444444444444397E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.0601851851851798E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.1759259259259302E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.2916666666666703E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7.4074074074074103E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.5231481481481503E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7.6388888888888904E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1185,6 +567,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F67A-48B8-BB61-857E3A364244}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1194,7 +581,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="0"/>
         <c:smooth val="0"/>
         <c:axId val="608044206"/>
         <c:axId val="861103167"/>
@@ -1206,6 +592,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="h:mm:ss" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1239,6 +626,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="861103167"/>
@@ -1297,6 +685,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="608044206"/>
@@ -1337,6 +726,7 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1904,28 +1294,34 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>102870</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>109220</xdr:rowOff>
+      <xdr:colOff>194677</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>74793</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>354330</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>109220</xdr:rowOff>
+      <xdr:colOff>446137</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>74792</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10595610" y="7607300"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2219,19 +1615,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" topLeftCell="K29" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K16" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
       <selection activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:35">
       <c r="A1" t="s">
@@ -2285,7 +1681,7 @@
       <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
     </row>
-    <row r="3" spans="21:35">
+    <row r="3" spans="1:35">
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
@@ -2406,7 +1802,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="21:35">
+    <row r="5" spans="1:35">
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
@@ -2425,10 +1821,10 @@
     </row>
     <row r="6" spans="1:35">
       <c r="A6" s="1">
-        <v>0.00289351851851852</v>
+        <v>2.8935185185185201E-3</v>
       </c>
       <c r="B6" s="1">
-        <v>0.153136574074074</v>
+        <v>0.15313657407407399</v>
       </c>
       <c r="C6">
         <v>129</v>
@@ -2496,10 +1892,10 @@
     </row>
     <row r="7" spans="1:35">
       <c r="A7" s="1">
-        <v>0.00300925925925926</v>
+        <v>3.0092592592592601E-3</v>
       </c>
       <c r="B7" s="1">
-        <v>0.153252314814815</v>
+        <v>0.15325231481481499</v>
       </c>
       <c r="C7">
         <v>132</v>
@@ -2564,10 +1960,10 @@
     </row>
     <row r="8" spans="1:35">
       <c r="A8" s="1">
-        <v>0.003125</v>
+        <v>3.1250000000000002E-3</v>
       </c>
       <c r="B8" s="1">
-        <v>0.153368055555556</v>
+        <v>0.15336805555555599</v>
       </c>
       <c r="C8">
         <v>130</v>
@@ -2635,10 +2031,10 @@
     </row>
     <row r="9" spans="1:35">
       <c r="A9" s="1">
-        <v>0.00324074074074074</v>
+        <v>3.2407407407407402E-3</v>
       </c>
       <c r="B9" s="1">
-        <v>0.153483796296296</v>
+        <v>0.15348379629629599</v>
       </c>
       <c r="C9">
         <v>132</v>
@@ -2677,7 +2073,7 @@
         <v>1526</v>
       </c>
       <c r="O9">
-        <v>4.39</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="P9">
         <v>102</v>
@@ -2703,10 +2099,10 @@
     </row>
     <row r="10" spans="1:35">
       <c r="A10" s="1">
-        <v>0.00335648148148148</v>
+        <v>3.3564814814814798E-3</v>
       </c>
       <c r="B10" s="1">
-        <v>0.153599537037037</v>
+        <v>0.15359953703703699</v>
       </c>
       <c r="C10">
         <v>132</v>
@@ -2771,10 +2167,10 @@
     </row>
     <row r="11" spans="1:35">
       <c r="A11" s="1">
-        <v>0.00347222222222222</v>
+        <v>3.4722222222222199E-3</v>
       </c>
       <c r="B11" s="1">
-        <v>0.153715277777778</v>
+        <v>0.15371527777777799</v>
       </c>
       <c r="C11">
         <v>129</v>
@@ -2786,7 +2182,7 @@
         <v>6.15</v>
       </c>
       <c r="F11">
-        <v>4.23</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="G11">
         <v>67</v>
@@ -2839,10 +2235,10 @@
     </row>
     <row r="12" spans="1:35">
       <c r="A12" s="1">
-        <v>0.00358796296296296</v>
+        <v>3.5879629629629599E-3</v>
       </c>
       <c r="B12" s="1">
-        <v>0.153831018518519</v>
+        <v>0.15383101851851899</v>
       </c>
       <c r="C12">
         <v>133</v>
@@ -2910,10 +2306,10 @@
     </row>
     <row r="13" spans="1:35">
       <c r="A13" s="1">
-        <v>0.0037037037037037</v>
+        <v>3.7037037037036999E-3</v>
       </c>
       <c r="B13" s="1">
-        <v>0.153946759259259</v>
+        <v>0.15394675925925899</v>
       </c>
       <c r="C13">
         <v>141</v>
@@ -2952,7 +2348,7 @@
         <v>1391</v>
       </c>
       <c r="O13">
-        <v>4.89</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="P13">
         <v>106</v>
@@ -2978,10 +2374,10 @@
     </row>
     <row r="14" spans="1:35">
       <c r="A14" s="1">
-        <v>0.00381944444444444</v>
+        <v>3.81944444444444E-3</v>
       </c>
       <c r="B14" s="1">
-        <v>0.1540625</v>
+        <v>0.15406249999999999</v>
       </c>
       <c r="C14">
         <v>141</v>
@@ -3020,7 +2416,7 @@
         <v>1401</v>
       </c>
       <c r="O14">
-        <v>4.85</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="P14">
         <v>110</v>
@@ -3046,10 +2442,10 @@
     </row>
     <row r="15" spans="1:35">
       <c r="A15" s="1">
-        <v>0.00393518518518519</v>
+        <v>3.93518518518519E-3</v>
       </c>
       <c r="B15" s="1">
-        <v>0.154178240740741</v>
+        <v>0.15417824074074099</v>
       </c>
       <c r="C15">
         <v>139</v>
@@ -3114,10 +2510,10 @@
     </row>
     <row r="16" spans="1:35">
       <c r="A16" s="1">
-        <v>0.00405092592592593</v>
+        <v>4.05092592592593E-3</v>
       </c>
       <c r="B16" s="1">
-        <v>0.154293981481481</v>
+        <v>0.15429398148148099</v>
       </c>
       <c r="C16">
         <v>138</v>
@@ -3182,10 +2578,10 @@
     </row>
     <row r="17" spans="1:35">
       <c r="A17" s="1">
-        <v>0.00416666666666667</v>
+        <v>4.1666666666666701E-3</v>
       </c>
       <c r="B17" s="1">
-        <v>0.154409722222222</v>
+        <v>0.15440972222222199</v>
       </c>
       <c r="C17">
         <v>140</v>
@@ -3250,10 +2646,10 @@
     </row>
     <row r="18" spans="1:35">
       <c r="A18" s="1">
-        <v>0.00428240740740741</v>
+        <v>4.2824074074074101E-3</v>
       </c>
       <c r="B18" s="1">
-        <v>0.154525462962963</v>
+        <v>0.15452546296296299</v>
       </c>
       <c r="C18">
         <v>147</v>
@@ -3318,10 +2714,10 @@
     </row>
     <row r="19" spans="1:35">
       <c r="A19" s="1">
-        <v>0.00439814814814815</v>
+        <v>4.3981481481481502E-3</v>
       </c>
       <c r="B19" s="1">
-        <v>0.154641203703704</v>
+        <v>0.15464120370370399</v>
       </c>
       <c r="C19">
         <v>150</v>
@@ -3386,10 +2782,10 @@
     </row>
     <row r="20" spans="1:35">
       <c r="A20" s="1">
-        <v>0.00451388888888889</v>
+        <v>4.5138888888888902E-3</v>
       </c>
       <c r="B20" s="1">
-        <v>0.154756944444444</v>
+        <v>0.15475694444444399</v>
       </c>
       <c r="C20">
         <v>153</v>
@@ -3401,7 +2797,7 @@
         <v>6.74</v>
       </c>
       <c r="F20">
-        <v>4.64</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="G20">
         <v>67</v>
@@ -3428,7 +2824,7 @@
         <v>1314</v>
       </c>
       <c r="O20">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="P20">
         <v>104</v>
@@ -3454,10 +2850,10 @@
     </row>
     <row r="21" spans="1:35">
       <c r="A21" s="1">
-        <v>0.00462962962962963</v>
+        <v>4.6296296296296302E-3</v>
       </c>
       <c r="B21" s="1">
-        <v>0.154872685185185</v>
+        <v>0.15487268518518499</v>
       </c>
       <c r="C21">
         <v>156</v>
@@ -3469,7 +2865,7 @@
         <v>6.69</v>
       </c>
       <c r="F21">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="G21">
         <v>66</v>
@@ -3522,10 +2918,10 @@
     </row>
     <row r="22" spans="1:35">
       <c r="A22" s="1">
-        <v>0.00474537037037037</v>
+        <v>4.7453703703703703E-3</v>
       </c>
       <c r="B22" s="1">
-        <v>0.154988425925926</v>
+        <v>0.15498842592592599</v>
       </c>
       <c r="C22">
         <v>156</v>
@@ -3590,10 +2986,10 @@
     </row>
     <row r="23" spans="1:35">
       <c r="A23" s="1">
-        <v>0.00486111111111111</v>
+        <v>4.8611111111111103E-3</v>
       </c>
       <c r="B23" s="1">
-        <v>0.155104166666667</v>
+        <v>0.15510416666666699</v>
       </c>
       <c r="C23">
         <v>159</v>
@@ -3658,10 +3054,10 @@
     </row>
     <row r="24" spans="1:35">
       <c r="A24" s="1">
-        <v>0.00497685185185185</v>
+        <v>4.9768518518518504E-3</v>
       </c>
       <c r="B24" s="1">
-        <v>0.155219907407407</v>
+        <v>0.15521990740740699</v>
       </c>
       <c r="C24">
         <v>160</v>
@@ -3726,10 +3122,10 @@
     </row>
     <row r="25" spans="1:35">
       <c r="A25" s="1">
-        <v>0.00509259259259259</v>
+        <v>5.0925925925925904E-3</v>
       </c>
       <c r="B25" s="1">
-        <v>0.155335648148148</v>
+        <v>0.15533564814814799</v>
       </c>
       <c r="C25">
         <v>162</v>
@@ -3794,10 +3190,10 @@
     </row>
     <row r="26" spans="1:35">
       <c r="A26" s="1">
-        <v>0.00520833333333333</v>
+        <v>5.2083333333333296E-3</v>
       </c>
       <c r="B26" s="1">
-        <v>0.155451388888889</v>
+        <v>0.15545138888888901</v>
       </c>
       <c r="C26">
         <v>163</v>
@@ -3862,10 +3258,10 @@
     </row>
     <row r="27" spans="1:35">
       <c r="A27" s="1">
-        <v>0.00532407407407407</v>
+        <v>5.3240740740740696E-3</v>
       </c>
       <c r="B27" s="1">
-        <v>0.15556712962963</v>
+        <v>0.15556712962963001</v>
       </c>
       <c r="C27">
         <v>163</v>
@@ -3877,7 +3273,7 @@
         <v>6.81</v>
       </c>
       <c r="F27">
-        <v>4.69</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="G27">
         <v>66</v>
@@ -3904,7 +3300,7 @@
         <v>1274</v>
       </c>
       <c r="O27">
-        <v>4.85</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="P27">
         <v>101</v>
@@ -3933,10 +3329,10 @@
     </row>
     <row r="28" spans="1:35">
       <c r="A28" s="1">
-        <v>0.00543981481481481</v>
+        <v>5.4398148148148097E-3</v>
       </c>
       <c r="B28" s="1">
-        <v>0.15568287037037</v>
+        <v>0.15568287037037001</v>
       </c>
       <c r="C28">
         <v>162</v>
@@ -4001,10 +3397,10 @@
     </row>
     <row r="29" spans="1:35">
       <c r="A29" s="1">
-        <v>0.00555555555555556</v>
+        <v>5.5555555555555601E-3</v>
       </c>
       <c r="B29" s="1">
-        <v>0.155798611111111</v>
+        <v>0.15579861111111101</v>
       </c>
       <c r="C29">
         <v>165</v>
@@ -4016,7 +3412,7 @@
         <v>6.88</v>
       </c>
       <c r="F29">
-        <v>4.73</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="G29">
         <v>66</v>
@@ -4043,7 +3439,7 @@
         <v>1253</v>
       </c>
       <c r="O29">
-        <v>4.86</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="P29">
         <v>104</v>
@@ -4069,10 +3465,10 @@
     </row>
     <row r="30" spans="1:35">
       <c r="A30" s="1">
-        <v>0.0056712962962963</v>
+        <v>5.6712962962963001E-3</v>
       </c>
       <c r="B30" s="1">
-        <v>0.155914351851852</v>
+        <v>0.15591435185185201</v>
       </c>
       <c r="C30">
         <v>168</v>
@@ -4137,10 +3533,10 @@
     </row>
     <row r="31" spans="1:35">
       <c r="A31" s="1">
-        <v>0.00578703703703704</v>
+        <v>5.7870370370370402E-3</v>
       </c>
       <c r="B31" s="1">
-        <v>0.156030092592593</v>
+        <v>0.15603009259259301</v>
       </c>
       <c r="C31">
         <v>169</v>
@@ -4205,10 +3601,10 @@
     </row>
     <row r="32" spans="1:35">
       <c r="A32" s="1">
-        <v>0.00590277777777778</v>
+        <v>5.9027777777777802E-3</v>
       </c>
       <c r="B32" s="1">
-        <v>0.156145833333333</v>
+        <v>0.15614583333333301</v>
       </c>
       <c r="C32">
         <v>172</v>
@@ -4273,10 +3669,10 @@
     </row>
     <row r="33" spans="1:35">
       <c r="A33" s="1">
-        <v>0.00601851851851852</v>
+        <v>6.0185185185185203E-3</v>
       </c>
       <c r="B33" s="1">
-        <v>0.156261574074074</v>
+        <v>0.15626157407407401</v>
       </c>
       <c r="C33">
         <v>176</v>
@@ -4288,7 +3684,7 @@
         <v>7.06</v>
       </c>
       <c r="F33">
-        <v>4.86</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="G33">
         <v>66</v>
@@ -4315,7 +3711,7 @@
         <v>1199</v>
       </c>
       <c r="O33">
-        <v>4.89</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="P33">
         <v>102</v>
@@ -4341,10 +3737,10 @@
     </row>
     <row r="34" spans="1:35">
       <c r="A34" s="1">
-        <v>0.00613425925925926</v>
+        <v>6.1342592592592603E-3</v>
       </c>
       <c r="B34" s="1">
-        <v>0.156377314814815</v>
+        <v>0.15637731481481501</v>
       </c>
       <c r="C34">
         <v>178</v>
@@ -4409,10 +3805,10 @@
     </row>
     <row r="35" spans="1:35">
       <c r="A35" s="1">
-        <v>0.00625</v>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="B35" s="1">
-        <v>0.156493055555556</v>
+        <v>0.15649305555555601</v>
       </c>
       <c r="C35">
         <v>180</v>
@@ -4451,7 +3847,7 @@
         <v>1232</v>
       </c>
       <c r="O35">
-        <v>4.48</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="P35">
         <v>94</v>
@@ -4464,47 +3860,47 @@
       </c>
       <c r="U35" s="2">
         <f>AVERAGE(C29:C35)</f>
-        <v>172.571428571429</v>
+        <v>172.57142857142858</v>
       </c>
       <c r="V35" s="2">
         <f t="shared" ref="V35:AI35" si="0">AVERAGE(D29:D35)</f>
-        <v>39.5714285714286</v>
+        <v>39.571428571428569</v>
       </c>
       <c r="W35" s="2">
         <f t="shared" si="0"/>
-        <v>6.93142857142857</v>
+        <v>6.9314285714285715</v>
       </c>
       <c r="X35" s="2">
         <f t="shared" si="0"/>
-        <v>4.77142857142857</v>
+        <v>4.7714285714285714</v>
       </c>
       <c r="Y35" s="2">
         <f t="shared" si="0"/>
-        <v>65.8571428571429</v>
+        <v>65.857142857142861</v>
       </c>
       <c r="Z35" s="2">
         <f t="shared" si="0"/>
-        <v>180.571428571429</v>
+        <v>180.57142857142858</v>
       </c>
       <c r="AA35" s="2">
         <f t="shared" si="0"/>
-        <v>165.285714285714</v>
+        <v>165.28571428571428</v>
       </c>
       <c r="AB35" s="2">
         <f t="shared" si="0"/>
-        <v>114.857142857143</v>
+        <v>114.85714285714286</v>
       </c>
       <c r="AC35" s="2">
         <f t="shared" si="0"/>
-        <v>55.1428571428571</v>
+        <v>55.142857142857146</v>
       </c>
       <c r="AD35" s="2">
         <f t="shared" si="0"/>
-        <v>60.1428571428571</v>
+        <v>60.142857142857146</v>
       </c>
       <c r="AE35" s="2">
         <f t="shared" si="0"/>
-        <v>841.714285714286</v>
+        <v>841.71428571428567</v>
       </c>
       <c r="AF35" s="2">
         <f t="shared" si="0"/>
@@ -4512,23 +3908,23 @@
       </c>
       <c r="AG35" s="2">
         <f t="shared" si="0"/>
-        <v>4.81</v>
+        <v>4.8100000000000005</v>
       </c>
       <c r="AH35" s="2">
         <f t="shared" si="0"/>
-        <v>101.571428571429</v>
+        <v>101.57142857142857</v>
       </c>
       <c r="AI35" s="2">
         <f t="shared" si="0"/>
-        <v>41.5714285714286</v>
+        <v>41.571428571428569</v>
       </c>
     </row>
     <row r="36" spans="1:35">
       <c r="A36" s="1">
-        <v>0.00636574074074074</v>
+        <v>6.3657407407407404E-3</v>
       </c>
       <c r="B36" s="1">
-        <v>0.156608796296296</v>
+        <v>0.15660879629629601</v>
       </c>
       <c r="C36">
         <v>181</v>
@@ -4540,7 +3936,7 @@
         <v>6.93</v>
       </c>
       <c r="F36">
-        <v>4.77</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="G36">
         <v>65</v>
@@ -4593,10 +3989,10 @@
     </row>
     <row r="37" spans="1:35">
       <c r="A37" s="1">
-        <v>0.00648148148148148</v>
+        <v>6.4814814814814804E-3</v>
       </c>
       <c r="B37" s="1">
-        <v>0.156724537037037</v>
+        <v>0.15672453703703701</v>
       </c>
       <c r="C37">
         <v>184</v>
@@ -4635,7 +4031,7 @@
         <v>1152</v>
       </c>
       <c r="O37">
-        <v>4.98</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="P37">
         <v>97</v>
@@ -4661,10 +4057,10 @@
     </row>
     <row r="38" spans="1:35">
       <c r="A38" s="1">
-        <v>0.00659722222222222</v>
+        <v>6.5972222222222196E-3</v>
       </c>
       <c r="B38" s="1">
-        <v>0.156840277777778</v>
+        <v>0.15684027777777801</v>
       </c>
       <c r="C38">
         <v>184</v>
@@ -4676,7 +4072,7 @@
         <v>7.11</v>
       </c>
       <c r="F38">
-        <v>4.89</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="G38">
         <v>65</v>
@@ -4724,7 +4120,7 @@
       </c>
       <c r="W38" s="2">
         <f t="shared" si="1"/>
-        <v>6.995</v>
+        <v>6.9949999999999992</v>
       </c>
       <c r="X38" s="2">
         <f t="shared" si="1"/>
@@ -4764,7 +4160,7 @@
       </c>
       <c r="AG38" s="2">
         <f t="shared" si="1"/>
-        <v>4.7525</v>
+        <v>4.7525000000000004</v>
       </c>
       <c r="AH38" s="2">
         <f t="shared" si="1"/>
@@ -4777,10 +4173,10 @@
     </row>
     <row r="39" spans="1:35">
       <c r="A39" s="1">
-        <v>0.00671296296296296</v>
+        <v>6.7129629629629596E-3</v>
       </c>
       <c r="B39" s="1">
-        <v>0.156956018518519</v>
+        <v>0.15695601851851901</v>
       </c>
       <c r="C39">
         <v>184</v>
@@ -4848,10 +4244,10 @@
     </row>
     <row r="40" spans="1:35">
       <c r="A40" s="1">
-        <v>0.0068287037037037</v>
+        <v>6.8287037037036997E-3</v>
       </c>
       <c r="B40" s="1">
-        <v>0.157071759259259</v>
+        <v>0.15707175925925901</v>
       </c>
       <c r="C40">
         <v>184</v>
@@ -4916,10 +4312,10 @@
     </row>
     <row r="41" spans="1:35">
       <c r="A41" s="1">
-        <v>0.00694444444444444</v>
+        <v>6.9444444444444397E-3</v>
       </c>
       <c r="B41" s="1">
-        <v>0.1571875</v>
+        <v>0.15718750000000001</v>
       </c>
       <c r="C41">
         <v>186</v>
@@ -4931,7 +4327,7 @@
         <v>7.36</v>
       </c>
       <c r="F41">
-        <v>5.06</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="G41">
         <v>66</v>
@@ -4983,7 +4379,7 @@
       </c>
       <c r="X41" s="2">
         <f t="shared" si="2"/>
-        <v>4.925</v>
+        <v>4.9249999999999998</v>
       </c>
       <c r="Y41" s="2">
         <f t="shared" si="2"/>
@@ -5019,7 +4415,7 @@
       </c>
       <c r="AG41" s="2">
         <f t="shared" si="2"/>
-        <v>4.8875</v>
+        <v>4.8875000000000002</v>
       </c>
       <c r="AH41" s="2">
         <f t="shared" si="2"/>
@@ -5030,12 +4426,12 @@
         <v>46.5</v>
       </c>
     </row>
-    <row r="42" spans="1:19">
+    <row r="42" spans="1:35">
       <c r="A42" s="1">
-        <v>0.00706018518518518</v>
+        <v>7.0601851851851798E-3</v>
       </c>
       <c r="B42" s="1">
-        <v>0.157303240740741</v>
+        <v>0.15730324074074101</v>
       </c>
       <c r="C42">
         <v>187</v>
@@ -5047,7 +4443,7 @@
         <v>7.42</v>
       </c>
       <c r="F42">
-        <v>5.11</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="G42">
         <v>66</v>
@@ -5086,12 +4482,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:35">
       <c r="A43" s="1">
-        <v>0.00717592592592593</v>
+        <v>7.1759259259259302E-3</v>
       </c>
       <c r="B43" s="1">
-        <v>0.157418981481481</v>
+        <v>0.15741898148148101</v>
       </c>
       <c r="C43">
         <v>185</v>
@@ -5103,7 +4499,7 @@
         <v>7.05</v>
       </c>
       <c r="F43">
-        <v>4.85</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="G43">
         <v>65</v>
@@ -5130,7 +4526,7 @@
         <v>1174</v>
       </c>
       <c r="O43">
-        <v>4.77</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="P43">
         <v>92</v>
@@ -5139,12 +4535,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:35">
       <c r="A44" s="1">
-        <v>0.00729166666666667</v>
+        <v>7.2916666666666703E-3</v>
       </c>
       <c r="B44" s="1">
-        <v>0.157534722222222</v>
+        <v>0.15753472222222201</v>
       </c>
       <c r="C44">
         <v>182</v>
@@ -5192,12 +4588,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:35">
       <c r="A45" s="1">
-        <v>0.00740740740740741</v>
+        <v>7.4074074074074103E-3</v>
       </c>
       <c r="B45" s="1">
-        <v>0.157650462962963</v>
+        <v>0.15765046296296301</v>
       </c>
       <c r="C45">
         <v>179</v>
@@ -5245,12 +4641,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:35">
       <c r="A46" s="1">
-        <v>0.00752314814814815</v>
+        <v>7.5231481481481503E-3</v>
       </c>
       <c r="B46" s="1">
-        <v>0.157766203703704</v>
+        <v>0.15776620370370401</v>
       </c>
       <c r="C46">
         <v>177</v>
@@ -5289,7 +4685,7 @@
         <v>1302</v>
       </c>
       <c r="O46">
-        <v>4.11</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="P46">
         <v>96</v>
@@ -5298,12 +4694,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:35">
       <c r="A47" s="1">
-        <v>0.00763888888888889</v>
+        <v>7.6388888888888904E-3</v>
       </c>
       <c r="B47" s="1">
-        <v>0.157881944444444</v>
+        <v>0.15788194444444401</v>
       </c>
       <c r="C47">
         <v>178</v>
@@ -5358,39 +4754,30 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>